--- a/Technological_Ages_Migration.xlsx
+++ b/Technological_Ages_Migration.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +447,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>name=Age,dataType=text,updateCriteria=trueMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedieval</t>
+          <t>name=Age,dataType=text,updateCriteria=true</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -462,13 +462,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AgeMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedievalMedieval</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>visibilityGroups</t>
         </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Medieval</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Technological_Ages_Migration.xlsx
+++ b/Technological_Ages_Migration.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,19 +471,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Medieval</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
